--- a/tcsbt/Data/output/Projection_Data.xlsx
+++ b/tcsbt/Data/output/Projection_Data.xlsx
@@ -7,18 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Projection_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="2" r:id="rId2"/>
-    <sheet name="Resource Count - By WON" sheetId="3" r:id="rId3"/>
-    <sheet name="Billable Cost - By WON" sheetId="4" r:id="rId4"/>
-    <sheet name="Team Split" sheetId="5" r:id="rId5"/>
+    <sheet name="Projection_Data_Billable" sheetId="1" r:id="rId1"/>
+    <sheet name="Projection_Data_Non_Billable" sheetId="2" r:id="rId2"/>
+    <sheet name="Resource_Movements" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId4"/>
+    <sheet name="Resource Count - By WON" sheetId="5" r:id="rId5"/>
+    <sheet name="Billable Cost - By WON" sheetId="6" r:id="rId6"/>
+    <sheet name="Team Split" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="171">
   <si>
     <t>WON</t>
   </si>
@@ -233,6 +235,9 @@
     <t>Aniket Das</t>
   </si>
   <si>
+    <t>Amit Yadav</t>
+  </si>
+  <si>
     <t>Anirvan Maitra</t>
   </si>
   <si>
@@ -284,21 +289,36 @@
     <t>Puneet Modi</t>
   </si>
   <si>
+    <t>Performance Improvement</t>
+  </si>
+  <si>
     <t>Development</t>
   </si>
   <si>
     <t>CMS</t>
   </si>
   <si>
+    <t>Onboarding</t>
+  </si>
+  <si>
     <t>Service</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>Production Support</t>
   </si>
   <si>
     <t>BAU</t>
   </si>
   <si>
+    <t>Assurance</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -348,6 +368,144 @@
   </si>
   <si>
     <t>Offshore</t>
+  </si>
+  <si>
+    <t>2727210</t>
+  </si>
+  <si>
+    <t>2727219</t>
+  </si>
+  <si>
+    <t>2727223</t>
+  </si>
+  <si>
+    <t>2727226</t>
+  </si>
+  <si>
+    <t>Priyanka Khandade</t>
+  </si>
+  <si>
+    <t>Rishi Gupta</t>
+  </si>
+  <si>
+    <t>Roshan Mhadgut</t>
+  </si>
+  <si>
+    <t>Wrushali Kolamkar</t>
+  </si>
+  <si>
+    <t>Dinesh Dhawade</t>
+  </si>
+  <si>
+    <t>Mamatha Devadiga</t>
+  </si>
+  <si>
+    <t>Pooja Hindelkar</t>
+  </si>
+  <si>
+    <t>Prasad Dalvi</t>
+  </si>
+  <si>
+    <t>Priti Yadav</t>
+  </si>
+  <si>
+    <t>Priyanka Bhatia</t>
+  </si>
+  <si>
+    <t>Abhishek Agarwal</t>
+  </si>
+  <si>
+    <t>Parvathy Remadevi</t>
+  </si>
+  <si>
+    <t>Abhinav Gupta</t>
+  </si>
+  <si>
+    <t>Grace Dmello</t>
+  </si>
+  <si>
+    <t>Hemakumar Aravind</t>
+  </si>
+  <si>
+    <t>Sameer Chauhan</t>
+  </si>
+  <si>
+    <t>Mohit Agarwal</t>
+  </si>
+  <si>
+    <t>Fixed Price - SMSF</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Amit Mehta</t>
+  </si>
+  <si>
+    <t>Krishnababu  Jayabal</t>
+  </si>
+  <si>
+    <t>Rakesh Prajapati</t>
+  </si>
+  <si>
+    <t>Ranjith Kumar A.R.</t>
+  </si>
+  <si>
+    <t>Shrada Mudgal</t>
+  </si>
+  <si>
+    <t>Anand Balasubramanian</t>
+  </si>
+  <si>
+    <t>Pramod Sahoo</t>
+  </si>
+  <si>
+    <t>Rashmi Bhojwani</t>
+  </si>
+  <si>
+    <t>Pooja Koul</t>
+  </si>
+  <si>
+    <t>Shilpi  Agarwal</t>
+  </si>
+  <si>
+    <t>Sudhir Kumar Singh</t>
+  </si>
+  <si>
+    <t>Kiruthika Desai</t>
+  </si>
+  <si>
+    <t>Shivani Chauhan</t>
+  </si>
+  <si>
+    <t>Milind Singh</t>
+  </si>
+  <si>
+    <t>Rohini Somvanshi</t>
+  </si>
+  <si>
+    <t>Deepak Jagyasi</t>
+  </si>
+  <si>
+    <t>Manisha Makde</t>
+  </si>
+  <si>
+    <t>Peuly Maiti</t>
+  </si>
+  <si>
+    <t>Ajay Shinde</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Offshored</t>
+  </si>
+  <si>
+    <t>WON_Changed</t>
+  </si>
+  <si>
+    <t>Senior Project Manager</t>
   </si>
   <si>
     <t>Key</t>
@@ -735,13 +893,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -784,16 +952,16 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -816,16 +984,16 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -848,16 +1016,16 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -880,16 +1048,16 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>22</v>
@@ -912,16 +1080,16 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -944,16 +1112,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G7">
         <v>22</v>
@@ -976,16 +1144,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -1008,16 +1176,16 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -1040,16 +1208,16 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G10">
         <v>22</v>
@@ -1072,16 +1240,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -1104,16 +1272,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G12">
         <v>22</v>
@@ -1136,16 +1304,16 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G13">
         <v>4.5</v>
@@ -1168,16 +1336,16 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G14">
         <v>22</v>
@@ -1200,16 +1368,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G15">
         <v>22</v>
@@ -1232,16 +1400,16 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -1264,16 +1432,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G17">
         <v>22</v>
@@ -1296,16 +1464,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G18">
         <v>22</v>
@@ -1328,16 +1496,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G19">
         <v>22</v>
@@ -1360,16 +1528,16 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -1392,16 +1560,16 @@
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1424,16 +1592,16 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1456,16 +1624,16 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <v>21</v>
@@ -1488,16 +1656,16 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1520,16 +1688,16 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <v>21</v>
@@ -1552,16 +1720,16 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G26">
         <v>21</v>
@@ -1584,16 +1752,16 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G27">
         <v>21</v>
@@ -1616,16 +1784,16 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -1648,16 +1816,16 @@
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>14</v>
@@ -1680,16 +1848,16 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G30">
         <v>21</v>
@@ -1712,16 +1880,16 @@
         <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G31">
         <v>21</v>
@@ -1744,16 +1912,16 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -1776,16 +1944,16 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G33">
         <v>21</v>
@@ -1808,16 +1976,16 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -1840,16 +2008,16 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G35">
         <v>21</v>
@@ -1872,16 +2040,16 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G36">
         <v>16</v>
@@ -1904,16 +2072,16 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -1936,16 +2104,16 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -1968,16 +2136,16 @@
         <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G39">
         <v>22</v>
@@ -2000,16 +2168,16 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G40">
         <v>22</v>
@@ -2032,16 +2200,16 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G41">
         <v>22</v>
@@ -2064,16 +2232,16 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G42">
         <v>22</v>
@@ -2096,16 +2264,16 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G43">
         <v>21</v>
@@ -2128,16 +2296,16 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G44">
         <v>21</v>
@@ -2160,16 +2328,16 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G45">
         <v>21</v>
@@ -2192,16 +2360,16 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G46">
         <v>21</v>
@@ -2224,16 +2392,16 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -2256,16 +2424,16 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G48">
         <v>22</v>
@@ -2288,16 +2456,16 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G49">
         <v>11</v>
@@ -2317,31 +2485,31 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J50">
-        <v>6030</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2349,31 +2517,31 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G51">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J51">
-        <v>14234</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2384,28 +2552,28 @@
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J52">
-        <v>6470</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2416,28 +2584,28 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J53">
-        <v>7236</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2448,28 +2616,28 @@
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G54">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J54">
-        <v>13266</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2480,16 +2648,16 @@
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G55">
         <v>22</v>
@@ -2501,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="J55">
-        <v>17798</v>
+        <v>13266</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2512,16 +2680,16 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G56">
         <v>22</v>
@@ -2533,7 +2701,7 @@
         <v>22</v>
       </c>
       <c r="J56">
-        <v>14234</v>
+        <v>17798</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2544,16 +2712,16 @@
         <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G57">
         <v>22</v>
@@ -2576,16 +2744,16 @@
         <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G58">
         <v>22</v>
@@ -2597,7 +2765,7 @@
         <v>22</v>
       </c>
       <c r="J58">
-        <v>17798</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2608,16 +2776,16 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G59">
         <v>22</v>
@@ -2629,71 +2797,71 @@
         <v>22</v>
       </c>
       <c r="J59">
-        <v>14234</v>
+        <v>17798</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J60">
-        <v>3480</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J61">
-        <v>4005</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2701,31 +2869,31 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G62">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J62">
-        <v>8900</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2736,28 +2904,28 @@
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G63">
         <v>21</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J63">
-        <v>7308</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2768,28 +2936,28 @@
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G64">
         <v>21</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J64">
-        <v>8900</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2800,16 +2968,16 @@
         <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G65">
         <v>21</v>
@@ -2821,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>7520</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2832,28 +3000,28 @@
         <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G66">
         <v>21</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66">
-        <v>9345</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2864,28 +3032,28 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G67">
         <v>21</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J67">
-        <v>9345</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2896,59 +3064,91 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G68">
         <v>21</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J68">
-        <v>9345</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
         <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <v>9345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70">
+        <v>22</v>
+      </c>
+      <c r="H70">
         <v>7</v>
       </c>
-      <c r="I69">
+      <c r="I70">
         <v>15</v>
       </c>
-      <c r="J69">
+      <c r="J70">
         <v>14370</v>
       </c>
     </row>
@@ -2959,58 +3159,695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5">
-        <v>60.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B6">
-        <v>60.98</v>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3020,122 +3857,723 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3145,290 +4583,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>164</v>
       </c>
       <c r="B2">
-        <v>267.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>266.5</v>
-      </c>
-      <c r="E2">
-        <v>180942.5</v>
-      </c>
-      <c r="F2">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>165</v>
       </c>
       <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>15532</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>166</v>
       </c>
       <c r="B4">
-        <v>154</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>141</v>
-      </c>
-      <c r="E4">
-        <v>93646</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>167</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>4895</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>168</v>
       </c>
       <c r="B6">
-        <v>262</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>254</v>
-      </c>
-      <c r="E6">
-        <v>93133</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>132</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>131</v>
-      </c>
-      <c r="E7">
-        <v>85622</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>32656</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>44</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>42152</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>2088</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>186</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>186</v>
-      </c>
-      <c r="E11">
-        <v>125534</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>3480</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>158</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>153</v>
-      </c>
-      <c r="E13">
-        <v>64668</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>14370</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+        <v>61.29</v>
       </c>
     </row>
   </sheetData>
@@ -3438,15 +4647,446 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>267.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>266.5</v>
+      </c>
+      <c r="E2">
+        <v>180942.5</v>
+      </c>
+      <c r="F2">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>15532</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>141</v>
+      </c>
+      <c r="E4">
+        <v>93646</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>4895</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>262</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>254</v>
+      </c>
+      <c r="E6">
+        <v>93133</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>85622</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>81</v>
+      </c>
+      <c r="E8">
+        <v>32656</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>42152</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>2088</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>197</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>197</v>
+      </c>
+      <c r="E11">
+        <v>134433</v>
+      </c>
+      <c r="F11">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>3480</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>63333</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>14370</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3463,92 +5103,187 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
+      <c r="A3" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
+      <c r="A5" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="6">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
